--- a/XlsxSheets/Usability_Scores_BAK.xlsx
+++ b/XlsxSheets/Usability_Scores_BAK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\FH_Stuff\BAK2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCAC6A7-7673-462F-8368-D4131B98C1A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED7F4CA-D66D-457E-8EDE-CB771D4B5E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{750A2C33-0092-4445-9593-91E918585FEB}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="22">
   <si>
     <t>SENSOR DASHBOARD USE CASE</t>
   </si>
@@ -98,13 +98,16 @@
   </si>
   <si>
     <t>TOTAL USABILITY SCORES PER APPROACH EXCLUDING APPEAL</t>
+  </si>
+  <si>
+    <t>TOTAL OPTICAL APPEAL SCORE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +162,14 @@
     <font>
       <b/>
       <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -219,7 +230,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -236,6 +247,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -379,6 +393,9 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -404,6 +421,9 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -429,6 +449,9 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -454,6 +477,9 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -479,6 +505,9 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -504,6 +533,9 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -537,24 +569,6 @@
     <dxf>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -569,16 +583,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EBB41B97-9198-406A-B16C-CAD9DE8E3A23}" name="Table2" displayName="Table2" ref="A5:G11" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50" totalsRowCellStyle="Good">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EBB41B97-9198-406A-B16C-CAD9DE8E3A23}" name="Table2" displayName="Table2" ref="A5:G11" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
   <autoFilter ref="A5:G11" xr:uid="{EBB41B97-9198-406A-B16C-CAD9DE8E3A23}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{407E90DF-D4AD-43DA-8041-292A07D88BFC}" name="Metric" dataDxfId="49" totalsRowDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{48782F46-3DB1-4B51-8F9F-2081C9972EAE}" name="Attribute Reflection Renderfragment" dataDxfId="48" totalsRowDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{3D95FFDA-3736-4ED6-B7EF-55ECFF1D7072}" name="Attribute Reflection Templates" dataDxfId="47" totalsRowDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{2891BF32-2907-4D52-9A05-4F3CFFC47093}" name="Basic reflection Renderfragment" dataDxfId="46" totalsRowDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{2539027F-166A-48F7-9595-5050DB0B709E}" name="Basic reflection templates" dataDxfId="45" totalsRowDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{5000F6CA-0900-40A0-A7B1-1908902A94F0}" name="GUI Generator" dataDxfId="44" totalsRowDxfId="37"/>
-    <tableColumn id="7" xr3:uid="{D3BCC1D8-0C47-460D-8D78-10565E9714E1}" name="Manual" dataDxfId="43" totalsRowDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{407E90DF-D4AD-43DA-8041-292A07D88BFC}" name="Metric" dataDxfId="49" totalsRowDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{48782F46-3DB1-4B51-8F9F-2081C9972EAE}" name="Attribute Reflection Renderfragment" dataDxfId="47" totalsRowDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{3D95FFDA-3736-4ED6-B7EF-55ECFF1D7072}" name="Attribute Reflection Templates" dataDxfId="45" totalsRowDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{2891BF32-2907-4D52-9A05-4F3CFFC47093}" name="Basic reflection Renderfragment" dataDxfId="43" totalsRowDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{2539027F-166A-48F7-9595-5050DB0B709E}" name="Basic reflection templates" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="6" xr3:uid="{5000F6CA-0900-40A0-A7B1-1908902A94F0}" name="GUI Generator" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="7" xr3:uid="{D3BCC1D8-0C47-460D-8D78-10565E9714E1}" name="Manual" dataDxfId="37" totalsRowDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -945,10 +959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E313FD4-8A66-47D6-ACFD-E37731FC984A}">
-  <dimension ref="A4:G51"/>
+  <dimension ref="A4:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1070,27 +1084,27 @@
         <v>16</v>
       </c>
       <c r="B9" s="5">
-        <f>SUM(B6:B8)</f>
+        <f t="shared" ref="B9:G9" si="0">SUM(B6:B8)</f>
         <v>-2</v>
       </c>
       <c r="C9" s="5">
-        <f>SUM(C6:C8)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="D9" s="5">
-        <f>SUM(D6:D8)</f>
+        <f t="shared" si="0"/>
         <v>-11</v>
       </c>
       <c r="E9" s="5">
-        <f>SUM(E6:E8)</f>
+        <f t="shared" si="0"/>
         <v>-12</v>
       </c>
       <c r="F9" s="5">
-        <f>SUM(F6:F8)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="G9" s="5">
-        <f>SUM(G6:G8)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
@@ -1099,27 +1113,27 @@
         <v>17</v>
       </c>
       <c r="B10" s="5">
-        <f>B9-B7</f>
+        <f t="shared" ref="B10:G10" si="1">B9-B7</f>
         <v>-5</v>
       </c>
       <c r="C10" s="5">
-        <f>C9-C7</f>
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
       <c r="D10" s="5">
-        <f>D9-D7</f>
+        <f t="shared" si="1"/>
         <v>-15</v>
       </c>
       <c r="E10" s="5">
-        <f>E9-E7</f>
+        <f t="shared" si="1"/>
         <v>-15</v>
       </c>
       <c r="F10" s="5">
-        <f>F9-F7</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="G10" s="5">
-        <f>G9-G7</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -1192,7 +1206,7 @@
         <v>15</v>
       </c>
       <c r="F15" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G15" s="3">
         <v>15</v>
@@ -1215,7 +1229,7 @@
         <v>15</v>
       </c>
       <c r="F16" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G16" s="3">
         <v>8</v>
@@ -1260,7 +1274,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5">
         <f>SUM(F15:F17)</f>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G18" s="5">
         <f>SUM(G15:G17)</f>
@@ -1283,7 +1297,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5">
         <f>F18-F16</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G19" s="5">
         <f>G18-G16</f>
@@ -1416,27 +1430,27 @@
         <v>16</v>
       </c>
       <c r="B27" s="5">
-        <f>SUM(B24:B26)</f>
+        <f t="shared" ref="B27:G27" si="2">SUM(B24:B26)</f>
         <v>16</v>
       </c>
       <c r="C27" s="5">
-        <f>SUM(C24:C26)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="D27" s="5">
-        <f>SUM(D24:D26)</f>
+        <f t="shared" si="2"/>
         <v>-6</v>
       </c>
       <c r="E27" s="5">
-        <f>SUM(E24:E26)</f>
+        <f t="shared" si="2"/>
         <v>-8</v>
       </c>
       <c r="F27" s="5">
-        <f>SUM(F24:F26)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="G27" s="5">
-        <f>SUM(G24:G26)</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
     </row>
@@ -1445,27 +1459,27 @@
         <v>18</v>
       </c>
       <c r="B28" s="5">
-        <f>B27-B25</f>
+        <f t="shared" ref="B28:G28" si="3">B27-B25</f>
         <v>10</v>
       </c>
       <c r="C28" s="5">
-        <f>C27-C25</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="D28" s="5">
-        <f>D27-D25</f>
+        <f t="shared" si="3"/>
         <v>-10</v>
       </c>
       <c r="E28" s="5">
-        <f>E27-E25</f>
+        <f t="shared" si="3"/>
         <v>-10</v>
       </c>
       <c r="F28" s="5">
-        <f>F27-F25</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="G28" s="5">
-        <f>G27-G25</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
@@ -1529,7 +1543,7 @@
         <v>10</v>
       </c>
       <c r="C33" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>15</v>
@@ -1538,7 +1552,7 @@
         <v>15</v>
       </c>
       <c r="F33" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G33" s="3">
         <v>10</v>
@@ -1600,13 +1614,13 @@
       </c>
       <c r="C36" s="5">
         <f>SUM(C33:C35)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5">
         <f>SUM(F33:F35)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G36" s="5">
         <f>SUM(G33:G35)</f>
@@ -1623,13 +1637,13 @@
       </c>
       <c r="C37" s="5">
         <f>C36-C34</f>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5">
         <f>F36-F34</f>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="G37" s="5">
         <f>G36-G34</f>
@@ -1708,7 +1722,7 @@
         <v>5</v>
       </c>
       <c r="G42" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1762,28 +1776,28 @@
         <v>16</v>
       </c>
       <c r="B45" s="5">
-        <f>SUM(B42:B44)</f>
+        <f t="shared" ref="B45:G45" si="4">SUM(B42:B44)</f>
         <v>15</v>
       </c>
       <c r="C45" s="5">
-        <f>SUM(C42:C44)</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="D45" s="5">
-        <f>SUM(D42:D44)</f>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="E45" s="5">
-        <f>SUM(E42:E44)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="F45" s="5">
-        <f>SUM(F42:F44)</f>
+        <f t="shared" si="4"/>
         <v>-4</v>
       </c>
       <c r="G45" s="5">
-        <f>SUM(G42:G44)</f>
-        <v>18</v>
+        <f t="shared" si="4"/>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
@@ -1791,28 +1805,28 @@
         <v>18</v>
       </c>
       <c r="B46" s="5">
-        <f>B45-B43</f>
+        <f t="shared" ref="B46:G46" si="5">B45-B43</f>
         <v>10</v>
       </c>
       <c r="C46" s="5">
-        <f>C45-C43</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="D46" s="5">
-        <f>D45-D43</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E46" s="5">
-        <f>E45-E43</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F46" s="5">
-        <f>F45-F43</f>
+        <f t="shared" si="5"/>
         <v>-10</v>
       </c>
       <c r="G46" s="5">
-        <f>G45-G43</f>
-        <v>10</v>
+        <f t="shared" si="5"/>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:7" s="6" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
@@ -1825,23 +1839,23 @@
       </c>
       <c r="C50" s="6">
         <f>SUM(C9,C18,C27,C36,C45)</f>
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D50" s="6">
         <f>SUM(D9,D27,D18,D36,D45)</f>
         <v>-2</v>
       </c>
       <c r="E50" s="6">
-        <f>SUM(E45,E36,E27,E18,E9)</f>
+        <f t="shared" ref="E50:G51" si="6">SUM(E45,E36,E27,E18,E9)</f>
         <v>-14</v>
       </c>
       <c r="F50" s="6">
-        <f>SUM(F45,F36,F27,F18,F9)</f>
-        <v>40</v>
+        <f t="shared" si="6"/>
+        <v>29</v>
       </c>
       <c r="G50" s="6">
-        <f>SUM(G45,G36,G27,G18,G9)</f>
-        <v>92</v>
+        <f t="shared" si="6"/>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:7" s="6" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
@@ -1854,23 +1868,52 @@
       </c>
       <c r="C51" s="6">
         <f>SUM(C46,C37,C28,C19,C10)</f>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D51" s="6">
         <f>SUM(D46,D37,D28,D19,D10)</f>
         <v>-15</v>
       </c>
       <c r="E51" s="6">
-        <f>SUM(E46,E37,E28,E19,E10)</f>
+        <f t="shared" si="6"/>
         <v>-25</v>
       </c>
       <c r="F51" s="6">
-        <f>SUM(F46,F37,F28,F19,F10)</f>
-        <v>15</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="G51" s="6">
-        <f>SUM(G46,G37,G28,G19,G10)</f>
-        <v>55</v>
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A52" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" s="6">
+        <f>SUM(B43,B34,B25,B16,B7)</f>
+        <v>26</v>
+      </c>
+      <c r="C52" s="6">
+        <f>SUM(C43,C34,C25,C16,C7)</f>
+        <v>17</v>
+      </c>
+      <c r="D52" s="6">
+        <f>SUM(D43,D25,D7)</f>
+        <v>13</v>
+      </c>
+      <c r="E52" s="6">
+        <f>SUM(E43,E25,E7)</f>
+        <v>11</v>
+      </c>
+      <c r="F52" s="6">
+        <f>SUM(F43,F34,F25,F16,F7)</f>
+        <v>24</v>
+      </c>
+      <c r="G52" s="6">
+        <f>SUM(G43,G34,G25,G16,G7)</f>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
